--- a/data/energy_households/raw_data/HeizölpreiseUSD.xlsx
+++ b/data/energy_households/raw_data/HeizölpreiseUSD.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a723f37ec918f092/Studium/Master EI/Applied Machine Intelligence/Project/group10/data/energy_households/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Studium\Master EI\Applied Machine Intelligence\Project\group10\data\energy_households\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B555B48-C073-462A-A0FA-8AA752749D01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1B555B48-C073-462A-A0FA-8AA752749D01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{05C25D46-11AB-4955-913C-2C3061BEC70D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD061B89-F9E6-450B-AA30-D3980A0B851A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75335,4 +75336,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5B50F5-D6E8-42DC-8B95-CA429811C0A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>